--- a/data/FY2010_20_Active_Component_Accessions_Non_PriorSvc_Census_Region.xlsx
+++ b/data/FY2010_20_Active_Component_Accessions_Non_PriorSvc_Census_Region.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hargr\Documents\NSS\PYTHON\Projects\capstone\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hargr\Documents\NSS\PYTHON\Projects\capstone\lightch\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{DAC348A8-5962-41A3-8B93-66ED33166A03}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0991B464-AAE9-4611-B21C-B52DFA031BD3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="43185" yWindow="405" windowWidth="20070" windowHeight="14175" xr2:uid="{822AC208-B8BF-487F-95A6-E9367C419F8A}"/>
+    <workbookView xWindow="43695" yWindow="915" windowWidth="20070" windowHeight="14175" xr2:uid="{822AC208-B8BF-487F-95A6-E9367C419F8A}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -39,39 +39,6 @@
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="26">
   <si>
     <t>division</t>
-  </si>
-  <si>
-    <t>year</t>
-  </si>
-  <si>
-    <t>dod_male</t>
-  </si>
-  <si>
-    <t> dod_male_per</t>
-  </si>
-  <si>
-    <t>dod_female</t>
-  </si>
-  <si>
-    <t>dod_female_per</t>
-  </si>
-  <si>
-    <t>dod_total</t>
-  </si>
-  <si>
-    <t>dod_total_per</t>
-  </si>
-  <si>
-    <t>gdppc</t>
-  </si>
-  <si>
-    <t>civ_male_per</t>
-  </si>
-  <si>
-    <t>civ_female_per</t>
-  </si>
-  <si>
-    <t>civ_total_per</t>
   </si>
   <si>
     <t>NORTHEAST REGION</t>
@@ -114,6 +81,39 @@
   </si>
   <si>
     <t>West North Central Division</t>
+  </si>
+  <si>
+    <t>Year</t>
+  </si>
+  <si>
+    <t>DoD_Male</t>
+  </si>
+  <si>
+    <t>DoD_Female</t>
+  </si>
+  <si>
+    <t>DoD_Total</t>
+  </si>
+  <si>
+    <t>DoD_Total_Percentage</t>
+  </si>
+  <si>
+    <t>GDP_Per_Capita</t>
+  </si>
+  <si>
+    <t>Civilian_Male_Percentage</t>
+  </si>
+  <si>
+    <t>Civilian_Female_Percentage</t>
+  </si>
+  <si>
+    <t>Civilian_Total_Percentage</t>
+  </si>
+  <si>
+    <t> DoD_Male_Percentage</t>
+  </si>
+  <si>
+    <t>DoD_Female_Percentage</t>
   </si>
 </sst>
 </file>
@@ -489,8 +489,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8929CABE-41BE-4CF3-8B7D-48BFB2DD4D4C}">
   <dimension ref="A1:L152"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="N7" sqref="N7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K1" sqref="K1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -513,42 +513,42 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="C1" t="s">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="D1" t="s">
-        <v>3</v>
+        <v>24</v>
       </c>
       <c r="E1" t="s">
-        <v>4</v>
+        <v>17</v>
       </c>
       <c r="F1" t="s">
-        <v>5</v>
+        <v>25</v>
       </c>
       <c r="G1" t="s">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="H1" t="s">
-        <v>7</v>
+        <v>19</v>
       </c>
       <c r="I1" t="s">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="J1" t="s">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="K1" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="L1" t="s">
-        <v>11</v>
+        <v>23</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="B2">
         <v>2010</v>
@@ -592,7 +592,7 @@
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>13</v>
+        <v>2</v>
       </c>
       <c r="B3">
         <v>2010</v>
@@ -636,7 +636,7 @@
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="B4">
         <v>2010</v>
@@ -680,7 +680,7 @@
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="B5">
         <v>2010</v>
@@ -724,7 +724,7 @@
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="B6">
         <v>2010</v>
@@ -768,7 +768,7 @@
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="B7">
         <v>2010</v>
@@ -812,7 +812,7 @@
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="B8">
         <v>2010</v>
@@ -856,7 +856,7 @@
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>18</v>
+        <v>7</v>
       </c>
       <c r="B9">
         <v>2010</v>
@@ -900,7 +900,7 @@
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="B10">
         <v>2010</v>
@@ -944,7 +944,7 @@
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="B11">
         <v>2010</v>
@@ -988,7 +988,7 @@
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="B12">
         <v>2010</v>
@@ -1032,7 +1032,7 @@
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="B13">
         <v>2010</v>
@@ -1076,7 +1076,7 @@
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="B14">
         <v>2010</v>
@@ -1120,7 +1120,7 @@
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="B15">
         <v>2010</v>
@@ -1158,7 +1158,7 @@
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="B16">
         <v>2011</v>
@@ -1196,7 +1196,7 @@
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
-        <v>13</v>
+        <v>2</v>
       </c>
       <c r="B17">
         <v>2011</v>
@@ -1234,7 +1234,7 @@
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="B18">
         <v>2011</v>
@@ -1272,7 +1272,7 @@
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="B19">
         <v>2011</v>
@@ -1310,7 +1310,7 @@
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="B20">
         <v>2011</v>
@@ -1348,7 +1348,7 @@
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="B21">
         <v>2011</v>
@@ -1386,7 +1386,7 @@
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="B22">
         <v>2011</v>
@@ -1424,7 +1424,7 @@
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
-        <v>18</v>
+        <v>7</v>
       </c>
       <c r="B23">
         <v>2011</v>
@@ -1462,7 +1462,7 @@
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="B24">
         <v>2011</v>
@@ -1500,7 +1500,7 @@
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="B25">
         <v>2011</v>
@@ -1538,7 +1538,7 @@
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="B26">
         <v>2011</v>
@@ -1576,7 +1576,7 @@
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="B27">
         <v>2011</v>
@@ -1614,7 +1614,7 @@
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="B28">
         <v>2011</v>
@@ -1652,7 +1652,7 @@
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="B29">
         <v>2011</v>
@@ -1690,7 +1690,7 @@
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="B30">
         <v>2012</v>
@@ -1728,7 +1728,7 @@
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
-        <v>13</v>
+        <v>2</v>
       </c>
       <c r="B31">
         <v>2012</v>
@@ -1766,7 +1766,7 @@
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="B32">
         <v>2012</v>
@@ -1804,7 +1804,7 @@
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="B33">
         <v>2012</v>
@@ -1842,7 +1842,7 @@
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="B34">
         <v>2012</v>
@@ -1880,7 +1880,7 @@
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="B35">
         <v>2012</v>
@@ -1918,7 +1918,7 @@
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="B36">
         <v>2012</v>
@@ -1956,7 +1956,7 @@
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
-        <v>18</v>
+        <v>7</v>
       </c>
       <c r="B37">
         <v>2012</v>
@@ -1994,7 +1994,7 @@
     </row>
     <row r="38" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="B38">
         <v>2012</v>
@@ -2032,7 +2032,7 @@
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="B39">
         <v>2012</v>
@@ -2070,7 +2070,7 @@
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="B40">
         <v>2012</v>
@@ -2108,7 +2108,7 @@
     </row>
     <row r="41" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="B41">
         <v>2012</v>
@@ -2146,7 +2146,7 @@
     </row>
     <row r="42" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="B42">
         <v>2012</v>
@@ -2184,7 +2184,7 @@
     </row>
     <row r="43" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="B43">
         <v>2012</v>
@@ -2222,7 +2222,7 @@
     </row>
     <row r="44" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="B44">
         <v>2013</v>
@@ -2260,7 +2260,7 @@
     </row>
     <row r="45" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
-        <v>13</v>
+        <v>2</v>
       </c>
       <c r="B45">
         <v>2013</v>
@@ -2298,7 +2298,7 @@
     </row>
     <row r="46" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="B46">
         <v>2013</v>
@@ -2336,7 +2336,7 @@
     </row>
     <row r="47" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="B47">
         <v>2013</v>
@@ -2374,7 +2374,7 @@
     </row>
     <row r="48" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="B48">
         <v>2013</v>
@@ -2412,7 +2412,7 @@
     </row>
     <row r="49" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="B49">
         <v>2013</v>
@@ -2450,7 +2450,7 @@
     </row>
     <row r="50" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="B50">
         <v>2013</v>
@@ -2488,7 +2488,7 @@
     </row>
     <row r="51" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
-        <v>18</v>
+        <v>7</v>
       </c>
       <c r="B51">
         <v>2013</v>
@@ -2526,7 +2526,7 @@
     </row>
     <row r="52" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="B52">
         <v>2013</v>
@@ -2564,7 +2564,7 @@
     </row>
     <row r="53" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="B53">
         <v>2013</v>
@@ -2602,7 +2602,7 @@
     </row>
     <row r="54" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="B54">
         <v>2013</v>
@@ -2640,7 +2640,7 @@
     </row>
     <row r="55" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="B55">
         <v>2013</v>
@@ -2678,7 +2678,7 @@
     </row>
     <row r="56" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="B56">
         <v>2013</v>
@@ -2716,7 +2716,7 @@
     </row>
     <row r="57" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="B57">
         <v>2013</v>
@@ -2754,7 +2754,7 @@
     </row>
     <row r="58" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A58" t="s">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="B58">
         <v>2014</v>
@@ -2792,7 +2792,7 @@
     </row>
     <row r="59" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A59" t="s">
-        <v>13</v>
+        <v>2</v>
       </c>
       <c r="B59">
         <v>2014</v>
@@ -2830,7 +2830,7 @@
     </row>
     <row r="60" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A60" t="s">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="B60">
         <v>2014</v>
@@ -2868,7 +2868,7 @@
     </row>
     <row r="61" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A61" t="s">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="B61">
         <v>2014</v>
@@ -2906,7 +2906,7 @@
     </row>
     <row r="62" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A62" t="s">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="B62">
         <v>2014</v>
@@ -2944,7 +2944,7 @@
     </row>
     <row r="63" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A63" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="B63">
         <v>2014</v>
@@ -2982,7 +2982,7 @@
     </row>
     <row r="64" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A64" t="s">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="B64">
         <v>2014</v>
@@ -3020,7 +3020,7 @@
     </row>
     <row r="65" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A65" t="s">
-        <v>18</v>
+        <v>7</v>
       </c>
       <c r="B65">
         <v>2014</v>
@@ -3058,7 +3058,7 @@
     </row>
     <row r="66" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A66" t="s">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="B66">
         <v>2014</v>
@@ -3096,7 +3096,7 @@
     </row>
     <row r="67" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A67" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="B67">
         <v>2014</v>
@@ -3134,7 +3134,7 @@
     </row>
     <row r="68" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A68" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="B68">
         <v>2014</v>
@@ -3172,7 +3172,7 @@
     </row>
     <row r="69" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A69" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="B69">
         <v>2014</v>
@@ -3210,7 +3210,7 @@
     </row>
     <row r="70" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A70" t="s">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="B70">
         <v>2014</v>
@@ -3248,7 +3248,7 @@
     </row>
     <row r="71" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A71" t="s">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="B71">
         <v>2014</v>
@@ -3286,7 +3286,7 @@
     </row>
     <row r="72" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A72" t="s">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="B72">
         <v>2015</v>
@@ -3324,7 +3324,7 @@
     </row>
     <row r="73" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A73" t="s">
-        <v>13</v>
+        <v>2</v>
       </c>
       <c r="B73">
         <v>2015</v>
@@ -3362,7 +3362,7 @@
     </row>
     <row r="74" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A74" t="s">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="B74">
         <v>2015</v>
@@ -3400,7 +3400,7 @@
     </row>
     <row r="75" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A75" t="s">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="B75">
         <v>2015</v>
@@ -3438,7 +3438,7 @@
     </row>
     <row r="76" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A76" t="s">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="B76">
         <v>2015</v>
@@ -3476,7 +3476,7 @@
     </row>
     <row r="77" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A77" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="B77">
         <v>2015</v>
@@ -3514,7 +3514,7 @@
     </row>
     <row r="78" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A78" t="s">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="B78">
         <v>2015</v>
@@ -3552,7 +3552,7 @@
     </row>
     <row r="79" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A79" t="s">
-        <v>18</v>
+        <v>7</v>
       </c>
       <c r="B79">
         <v>2015</v>
@@ -3590,7 +3590,7 @@
     </row>
     <row r="80" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A80" t="s">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="B80">
         <v>2015</v>
@@ -3628,7 +3628,7 @@
     </row>
     <row r="81" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A81" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="B81">
         <v>2015</v>
@@ -3666,7 +3666,7 @@
     </row>
     <row r="82" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A82" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="B82">
         <v>2015</v>
@@ -3704,7 +3704,7 @@
     </row>
     <row r="83" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A83" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="B83">
         <v>2015</v>
@@ -3742,7 +3742,7 @@
     </row>
     <row r="84" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A84" t="s">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="B84">
         <v>2015</v>
@@ -3780,7 +3780,7 @@
     </row>
     <row r="85" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A85" t="s">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="B85">
         <v>2015</v>
@@ -3818,7 +3818,7 @@
     </row>
     <row r="86" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A86" t="s">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="B86">
         <v>2016</v>
@@ -3856,7 +3856,7 @@
     </row>
     <row r="87" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A87" t="s">
-        <v>13</v>
+        <v>2</v>
       </c>
       <c r="B87">
         <v>2016</v>
@@ -3894,7 +3894,7 @@
     </row>
     <row r="88" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A88" t="s">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="B88">
         <v>2016</v>
@@ -3932,7 +3932,7 @@
     </row>
     <row r="89" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A89" t="s">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="B89">
         <v>2016</v>
@@ -3970,7 +3970,7 @@
     </row>
     <row r="90" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A90" t="s">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="B90">
         <v>2016</v>
@@ -4008,7 +4008,7 @@
     </row>
     <row r="91" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A91" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="B91">
         <v>2016</v>
@@ -4046,7 +4046,7 @@
     </row>
     <row r="92" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A92" t="s">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="B92">
         <v>2016</v>
@@ -4084,7 +4084,7 @@
     </row>
     <row r="93" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A93" t="s">
-        <v>18</v>
+        <v>7</v>
       </c>
       <c r="B93">
         <v>2016</v>
@@ -4122,7 +4122,7 @@
     </row>
     <row r="94" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A94" t="s">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="B94">
         <v>2016</v>
@@ -4160,7 +4160,7 @@
     </row>
     <row r="95" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A95" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="B95">
         <v>2016</v>
@@ -4198,7 +4198,7 @@
     </row>
     <row r="96" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A96" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="B96">
         <v>2016</v>
@@ -4236,7 +4236,7 @@
     </row>
     <row r="97" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A97" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="B97">
         <v>2016</v>
@@ -4274,7 +4274,7 @@
     </row>
     <row r="98" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A98" t="s">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="B98">
         <v>2016</v>
@@ -4312,7 +4312,7 @@
     </row>
     <row r="99" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A99" t="s">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="B99">
         <v>2016</v>
@@ -4350,7 +4350,7 @@
     </row>
     <row r="100" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A100" t="s">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="B100">
         <v>2017</v>
@@ -4388,7 +4388,7 @@
     </row>
     <row r="101" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A101" t="s">
-        <v>13</v>
+        <v>2</v>
       </c>
       <c r="B101">
         <v>2017</v>
@@ -4426,7 +4426,7 @@
     </row>
     <row r="102" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A102" t="s">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="B102">
         <v>2017</v>
@@ -4464,7 +4464,7 @@
     </row>
     <row r="103" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A103" t="s">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="B103">
         <v>2017</v>
@@ -4502,7 +4502,7 @@
     </row>
     <row r="104" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A104" t="s">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="B104">
         <v>2017</v>
@@ -4540,7 +4540,7 @@
     </row>
     <row r="105" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A105" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="B105">
         <v>2017</v>
@@ -4578,7 +4578,7 @@
     </row>
     <row r="106" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A106" t="s">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="B106">
         <v>2017</v>
@@ -4616,7 +4616,7 @@
     </row>
     <row r="107" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A107" t="s">
-        <v>18</v>
+        <v>7</v>
       </c>
       <c r="B107">
         <v>2017</v>
@@ -4654,7 +4654,7 @@
     </row>
     <row r="108" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A108" t="s">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="B108">
         <v>2017</v>
@@ -4692,7 +4692,7 @@
     </row>
     <row r="109" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A109" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="B109">
         <v>2017</v>
@@ -4730,7 +4730,7 @@
     </row>
     <row r="110" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A110" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="B110">
         <v>2017</v>
@@ -4768,7 +4768,7 @@
     </row>
     <row r="111" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A111" t="s">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="B111">
         <v>2017</v>
@@ -4806,7 +4806,7 @@
     </row>
     <row r="112" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A112" t="s">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="B112">
         <v>2017</v>
@@ -4844,7 +4844,7 @@
     </row>
     <row r="113" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A113" t="s">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="B113">
         <v>2018</v>
@@ -4882,7 +4882,7 @@
     </row>
     <row r="114" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A114" t="s">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="B114">
         <v>2018</v>
@@ -4920,7 +4920,7 @@
     </row>
     <row r="115" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A115" t="s">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="B115">
         <v>2018</v>
@@ -4958,7 +4958,7 @@
     </row>
     <row r="116" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A116" t="s">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="B116">
         <v>2018</v>
@@ -4996,7 +4996,7 @@
     </row>
     <row r="117" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A117" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="B117">
         <v>2018</v>
@@ -5034,7 +5034,7 @@
     </row>
     <row r="118" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A118" t="s">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="B118">
         <v>2018</v>
@@ -5072,7 +5072,7 @@
     </row>
     <row r="119" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A119" t="s">
-        <v>18</v>
+        <v>7</v>
       </c>
       <c r="B119">
         <v>2018</v>
@@ -5110,7 +5110,7 @@
     </row>
     <row r="120" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A120" t="s">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="B120">
         <v>2018</v>
@@ -5148,7 +5148,7 @@
     </row>
     <row r="121" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A121" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="B121">
         <v>2018</v>
@@ -5186,7 +5186,7 @@
     </row>
     <row r="122" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A122" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="B122">
         <v>2018</v>
@@ -5224,7 +5224,7 @@
     </row>
     <row r="123" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A123" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="B123">
         <v>2018</v>
@@ -5262,7 +5262,7 @@
     </row>
     <row r="124" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A124" t="s">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="B124">
         <v>2018</v>
@@ -5300,7 +5300,7 @@
     </row>
     <row r="125" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A125" t="s">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="B125">
         <v>2018</v>
@@ -5338,7 +5338,7 @@
     </row>
     <row r="126" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A126" t="s">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="B126">
         <v>2019</v>
@@ -5376,7 +5376,7 @@
     </row>
     <row r="127" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A127" t="s">
-        <v>13</v>
+        <v>2</v>
       </c>
       <c r="B127">
         <v>2019</v>
@@ -5414,7 +5414,7 @@
     </row>
     <row r="128" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A128" t="s">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="B128">
         <v>2019</v>
@@ -5452,7 +5452,7 @@
     </row>
     <row r="129" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A129" t="s">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="B129">
         <v>2019</v>
@@ -5490,7 +5490,7 @@
     </row>
     <row r="130" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A130" t="s">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="B130">
         <v>2019</v>
@@ -5528,7 +5528,7 @@
     </row>
     <row r="131" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A131" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="B131">
         <v>2019</v>
@@ -5566,7 +5566,7 @@
     </row>
     <row r="132" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A132" t="s">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="B132">
         <v>2019</v>
@@ -5604,7 +5604,7 @@
     </row>
     <row r="133" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A133" t="s">
-        <v>18</v>
+        <v>7</v>
       </c>
       <c r="B133">
         <v>2019</v>
@@ -5642,7 +5642,7 @@
     </row>
     <row r="134" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A134" t="s">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="B134">
         <v>2019</v>
@@ -5680,7 +5680,7 @@
     </row>
     <row r="135" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A135" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="B135">
         <v>2019</v>
@@ -5718,7 +5718,7 @@
     </row>
     <row r="136" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A136" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="B136">
         <v>2019</v>
@@ -5756,7 +5756,7 @@
     </row>
     <row r="137" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A137" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="B137">
         <v>2019</v>
@@ -5794,7 +5794,7 @@
     </row>
     <row r="138" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A138" t="s">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="B138">
         <v>2019</v>
@@ -5832,7 +5832,7 @@
     </row>
     <row r="139" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A139" t="s">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="B139">
         <v>2019</v>
@@ -5870,7 +5870,7 @@
     </row>
     <row r="140" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A140" t="s">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="B140">
         <v>2020</v>
@@ -5911,7 +5911,7 @@
     </row>
     <row r="141" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A141" t="s">
-        <v>13</v>
+        <v>2</v>
       </c>
       <c r="B141">
         <v>2020</v>
@@ -5952,7 +5952,7 @@
     </row>
     <row r="142" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A142" t="s">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="B142">
         <v>2020</v>
@@ -5993,7 +5993,7 @@
     </row>
     <row r="143" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A143" t="s">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="B143">
         <v>2020</v>
@@ -6034,7 +6034,7 @@
     </row>
     <row r="144" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A144" t="s">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="B144">
         <v>2020</v>
@@ -6075,7 +6075,7 @@
     </row>
     <row r="145" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A145" t="s">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="B145">
         <v>2020</v>
@@ -6116,7 +6116,7 @@
     </row>
     <row r="146" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A146" t="s">
-        <v>18</v>
+        <v>7</v>
       </c>
       <c r="B146">
         <v>2020</v>
@@ -6157,7 +6157,7 @@
     </row>
     <row r="147" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A147" t="s">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="B147">
         <v>2020</v>
@@ -6198,7 +6198,7 @@
     </row>
     <row r="148" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A148" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="B148">
         <v>2020</v>
@@ -6239,7 +6239,7 @@
     </row>
     <row r="149" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A149" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="B149">
         <v>2020</v>
@@ -6280,7 +6280,7 @@
     </row>
     <row r="150" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A150" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="B150">
         <v>2020</v>
@@ -6321,7 +6321,7 @@
     </row>
     <row r="151" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A151" t="s">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="B151">
         <v>2020</v>
@@ -6362,7 +6362,7 @@
     </row>
     <row r="152" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A152" t="s">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="B152">
         <v>2020</v>
